--- a/08-agosto/6-portal-cliente/todoNa/TODO NAT.xlsx
+++ b/08-agosto/6-portal-cliente/todoNa/TODO NAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\todoNa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\todoNa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967A0B7B-5758-4970-A51C-BFB245F29E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479A6FC-A9A6-49C9-867D-76187D73A52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>EMPLEADO</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>ZURDO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +550,8 @@
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -608,35 +615,35 @@
         <v>10</v>
       </c>
       <c r="B5" s="12">
-        <v>591884.77</v>
+        <v>603548.32999999996</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
       </c>
       <c r="D5" s="13">
         <f>SUM(B5:C5)</f>
-        <v>591884.77</v>
+        <v>603548.32999999996</v>
       </c>
       <c r="E5" s="12">
-        <v>22315.98</v>
+        <v>22532.639999999999</v>
       </c>
       <c r="F5" s="12">
         <v>0</v>
       </c>
       <c r="G5" s="13">
         <f>+E5+F5</f>
-        <v>22315.98</v>
+        <v>22532.639999999999</v>
       </c>
       <c r="H5" s="12">
         <f>+D5+G5</f>
-        <v>614200.75</v>
+        <v>626080.97</v>
       </c>
       <c r="I5" s="12">
         <f>+H5*2</f>
-        <v>1228401.5</v>
+        <v>1252161.94</v>
       </c>
       <c r="J5" s="14">
-        <v>1226897.52</v>
+        <v>1249629.3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
@@ -644,35 +651,35 @@
         <v>13</v>
       </c>
       <c r="B6" s="12">
-        <v>1183769.56</v>
+        <v>1207096.6499999999</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D10" si="0">SUM(B6:C6)</f>
-        <v>1183769.56</v>
+        <f t="shared" ref="D6:D12" si="0">SUM(B6:C6)</f>
+        <v>1207096.6499999999</v>
       </c>
       <c r="E6" s="12">
-        <v>44631.96</v>
+        <v>45065.279999999999</v>
       </c>
       <c r="F6" s="12">
         <v>0</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" ref="G6:G10" si="1">+E6+F6</f>
-        <v>44631.96</v>
+        <f t="shared" ref="G6:G12" si="1">+E6+F6</f>
+        <v>45065.279999999999</v>
       </c>
       <c r="H6" s="12">
         <f>+D6+G6</f>
-        <v>1228401.52</v>
+        <v>1252161.93</v>
       </c>
       <c r="I6" s="12">
-        <f>+H6*1</f>
-        <v>1228401.52</v>
+        <f t="shared" ref="I6:I12" si="2">+H6*2</f>
+        <v>2504323.86</v>
       </c>
       <c r="J6" s="14">
-        <v>1223769.56</v>
+        <v>1247096.6499999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
@@ -680,12 +687,12 @@
         <v>11</v>
       </c>
       <c r="B7" s="15">
-        <v>574645.42000000004</v>
+        <v>703001.59</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>574645.42000000004</v>
+        <v>703001.59</v>
       </c>
       <c r="E7" s="12">
         <v>21666</v>
@@ -696,15 +703,15 @@
         <v>21666</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" ref="H7:H10" si="2">+D7+G7</f>
-        <v>596311.42000000004</v>
+        <f t="shared" ref="H7:H12" si="3">+D7+G7</f>
+        <v>724667.59</v>
       </c>
       <c r="I7" s="12">
-        <f t="shared" ref="I7:I8" si="3">+H7*2</f>
-        <v>1192622.8400000001</v>
+        <f t="shared" si="2"/>
+        <v>1449335.18</v>
       </c>
       <c r="J7" s="14">
-        <v>1190956.8400000001</v>
+        <v>1447669.18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
@@ -712,12 +719,12 @@
         <v>12</v>
       </c>
       <c r="B8" s="12">
-        <v>574645.42000000004</v>
+        <v>580334.93000000005</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13">
         <f t="shared" si="0"/>
-        <v>574645.42000000004</v>
+        <v>580334.93000000005</v>
       </c>
       <c r="E8" s="12">
         <v>21666</v>
@@ -728,15 +735,15 @@
         <v>21666</v>
       </c>
       <c r="H8" s="12">
+        <f t="shared" si="3"/>
+        <v>602000.93000000005</v>
+      </c>
+      <c r="I8" s="12">
         <f t="shared" si="2"/>
-        <v>596311.42000000004</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="3"/>
-        <v>1192622.8400000001</v>
+        <v>1204001.8600000001</v>
       </c>
       <c r="J8" s="14">
-        <v>1190956.8400000001</v>
+        <v>1202335.8600000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
@@ -760,12 +767,12 @@
         <v>43332</v>
       </c>
       <c r="H9" s="12">
+        <f t="shared" si="3"/>
+        <v>1227229.48</v>
+      </c>
+      <c r="I9" s="12">
         <f t="shared" si="2"/>
-        <v>1227229.48</v>
-      </c>
-      <c r="I9" s="12">
-        <f>+H9</f>
-        <v>1227229.48</v>
+        <v>2454458.96</v>
       </c>
       <c r="J9" s="14">
         <v>1223897.48</v>
@@ -776,12 +783,12 @@
         <v>16</v>
       </c>
       <c r="B10" s="12">
-        <v>574645.42000000004</v>
+        <v>580334.93000000005</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>574645.42000000004</v>
+        <v>580334.93000000005</v>
       </c>
       <c r="E10" s="12">
         <v>21666</v>
@@ -792,329 +799,375 @@
         <v>21666</v>
       </c>
       <c r="H10" s="12">
+        <f t="shared" si="3"/>
+        <v>602000.93000000005</v>
+      </c>
+      <c r="I10" s="12">
         <f t="shared" si="2"/>
-        <v>596311.42000000004</v>
-      </c>
-      <c r="I10" s="12">
-        <f>+H10*2</f>
-        <v>1192622.8400000001</v>
+        <v>1204001.8600000001</v>
       </c>
       <c r="J10" s="14">
-        <v>1190956.8400000001</v>
+        <v>1202335.8600000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13">
-        <f>SUM(B5:B10)</f>
-        <v>4683488.07</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12">
+        <v>580334.93000000005</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>580334.93000000005</v>
+      </c>
+      <c r="E11" s="12">
+        <v>21666</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>21666</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="3"/>
+        <v>602000.93000000005</v>
+      </c>
+      <c r="I11" s="12">
+        <f>+H11*2</f>
+        <v>1204001.8600000001</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1202335.8600000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12">
+        <v>580334.93000000005</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>580334.93000000005</v>
+      </c>
+      <c r="E12" s="12">
+        <v>21666</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13">
+        <f t="shared" si="1"/>
+        <v>21666</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="3"/>
+        <v>602000.93000000005</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="2"/>
+        <v>1204001.8600000001</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1202335.8600000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13">
+        <f>SUM(B5:B12)</f>
+        <v>6018883.7699999996</v>
+      </c>
+      <c r="C13" s="13">
         <f>SUM(C5:C7)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="13">
-        <f>SUM(B11:C11)</f>
-        <v>4683488.07</v>
-      </c>
-      <c r="E11" s="13">
-        <f>SUM(E5:E10)</f>
-        <v>175277.94</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="D13" s="13">
+        <f>SUM(B13:C13)</f>
+        <v>6018883.7699999996</v>
+      </c>
+      <c r="E13" s="13">
+        <f>SUM(E5:E12)</f>
+        <v>219259.91999999998</v>
+      </c>
+      <c r="F13" s="13">
         <f>SUM(F5:F7)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="13">
-        <f>SUM(G5:G10)</f>
-        <v>175277.94</v>
-      </c>
-      <c r="H11" s="12">
-        <f>+D11+G11</f>
-        <v>4858766.0100000007</v>
-      </c>
-      <c r="I11" s="13">
-        <f>SUM(I5:I7)</f>
-        <v>3649425.8600000003</v>
-      </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A15" s="16" t="s">
+      <c r="G13" s="13">
+        <f>SUM(G5:G12)</f>
+        <v>219259.91999999998</v>
+      </c>
+      <c r="H13" s="12">
+        <f>+D13+G13</f>
+        <v>6238143.6899999995</v>
+      </c>
+      <c r="I13" s="13">
+        <f>SUM(I5:I12)</f>
+        <v>12476287.379999999</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B17" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19">
-        <v>562512.64000000001</v>
-      </c>
-      <c r="C16" s="19">
-        <v>281256.32000000001</v>
-      </c>
-      <c r="D16" s="20">
-        <f>SUM(B16:C16)</f>
-        <v>843768.96</v>
-      </c>
-      <c r="E16" s="19">
-        <v>49082.85</v>
-      </c>
-      <c r="F16" s="19">
-        <v>24541.43</v>
-      </c>
-      <c r="G16" s="20">
-        <f>+E16+F16</f>
-        <v>73624.28</v>
-      </c>
-      <c r="H16" s="19">
-        <f>+D16+G16</f>
-        <v>917393.24</v>
-      </c>
-      <c r="I16" s="19">
-        <f>+H16*2</f>
-        <v>1834786.48</v>
-      </c>
-      <c r="J16" s="22">
-        <v>1829692.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="19">
-        <v>1125025.25</v>
-      </c>
-      <c r="C17" s="19">
-        <v>562512.76</v>
-      </c>
-      <c r="D17" s="20">
-        <f t="shared" ref="D17:D20" si="4">SUM(B17:C17)</f>
-        <v>1687538.01</v>
-      </c>
-      <c r="E17" s="19">
-        <v>98165.7</v>
-      </c>
-      <c r="F17" s="19">
-        <v>49082.85</v>
-      </c>
-      <c r="G17" s="20">
-        <f t="shared" ref="G17:G20" si="5">+E17+F17</f>
-        <v>147248.54999999999</v>
-      </c>
-      <c r="H17" s="19">
-        <f>+D17+G17</f>
-        <v>1834786.56</v>
-      </c>
-      <c r="I17" s="19">
-        <f>+H17*1</f>
-        <v>1834786.56</v>
-      </c>
-      <c r="J17" s="22">
-        <v>1824598.8</v>
-      </c>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19">
+        <v>562512.64000000001</v>
+      </c>
+      <c r="C18" s="19">
+        <v>281256.32000000001</v>
+      </c>
+      <c r="D18" s="20">
+        <f>SUM(B18:C18)</f>
+        <v>843768.96</v>
+      </c>
+      <c r="E18" s="19">
+        <v>49082.85</v>
+      </c>
+      <c r="F18" s="19">
+        <v>24541.43</v>
+      </c>
+      <c r="G18" s="20">
+        <f>+E18+F18</f>
+        <v>73624.28</v>
+      </c>
+      <c r="H18" s="19">
+        <f>+D18+G18</f>
+        <v>917393.24</v>
+      </c>
+      <c r="I18" s="19">
+        <f>+H18*2</f>
+        <v>1834786.48</v>
+      </c>
+      <c r="J18" s="22">
+        <v>1829692.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1125025.25</v>
+      </c>
+      <c r="C19" s="19">
+        <v>562512.76</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" ref="D19:D22" si="4">SUM(B19:C19)</f>
+        <v>1687538.01</v>
+      </c>
+      <c r="E19" s="19">
+        <v>98165.7</v>
+      </c>
+      <c r="F19" s="19">
+        <v>49082.85</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" ref="G19:G22" si="5">+E19+F19</f>
+        <v>147248.54999999999</v>
+      </c>
+      <c r="H19" s="19">
+        <f>+D19+G19</f>
+        <v>1834786.56</v>
+      </c>
+      <c r="I19" s="19">
+        <f>+H19*1</f>
+        <v>1834786.56</v>
+      </c>
+      <c r="J19" s="22">
+        <v>1824598.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B20" s="21">
         <v>546128.78</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C20" s="19">
         <v>273064.39</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D20" s="20">
         <f t="shared" si="4"/>
         <v>819193.17</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E20" s="19">
         <v>47653.25</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F20" s="19">
         <v>23826.63</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G20" s="20">
         <f t="shared" si="5"/>
         <v>71479.88</v>
       </c>
-      <c r="H18" s="19">
-        <f t="shared" ref="H18:H20" si="6">+D18+G18</f>
+      <c r="H20" s="19">
+        <f t="shared" ref="H20:H22" si="6">+D20+G20</f>
         <v>890673.05</v>
       </c>
-      <c r="I18" s="19">
-        <f t="shared" ref="I18:I19" si="7">+H18*2</f>
+      <c r="I20" s="19">
+        <f t="shared" ref="I20:I21" si="7">+H20*2</f>
         <v>1781346.1</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J20" s="22">
         <v>1777681.82</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A19" s="18" t="s">
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B21" s="19">
         <v>546128.78</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C21" s="19">
         <v>273064.39</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D21" s="20">
         <f t="shared" si="4"/>
         <v>819193.17</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E21" s="19">
         <v>47653.25</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F21" s="19">
         <v>23826.63</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G21" s="20">
         <f t="shared" si="5"/>
         <v>71479.88</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H21" s="19">
         <f t="shared" si="6"/>
         <v>890673.05</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I21" s="19">
         <f t="shared" si="7"/>
         <v>1781346.1</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J21" s="22">
         <v>1777681.82</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A20" s="18" t="s">
+    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A22" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B22" s="19">
         <v>1125091.96</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C22" s="19">
         <v>562545.98</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D22" s="20">
         <f t="shared" si="4"/>
         <v>1687637.94</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E22" s="19">
         <v>95306.5</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F22" s="19">
         <v>47653.25</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G22" s="20">
         <f t="shared" si="5"/>
         <v>142959.75</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H22" s="19">
         <f t="shared" si="6"/>
         <v>1830597.69</v>
       </c>
-      <c r="I20" s="19">
-        <f>+H20</f>
+      <c r="I22" s="19">
+        <f>+H22</f>
         <v>1830597.69</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J22" s="22">
         <v>1823269.13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20">
-        <f>SUM(B16:B20)</f>
+    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20">
+        <f>SUM(B18:B22)</f>
         <v>3904887.41</v>
       </c>
-      <c r="C21" s="20">
-        <f>SUM(C16:C20)</f>
+      <c r="C23" s="20">
+        <f>SUM(C18:C22)</f>
         <v>1952443.8400000003</v>
       </c>
-      <c r="D21" s="20">
-        <f>SUM(B21:C21)</f>
+      <c r="D23" s="20">
+        <f>SUM(B23:C23)</f>
         <v>5857331.25</v>
       </c>
-      <c r="E21" s="20">
-        <f>SUM(E16:E20)</f>
+      <c r="E23" s="20">
+        <f>SUM(E18:E22)</f>
         <v>337861.55</v>
       </c>
-      <c r="F21" s="20">
-        <f>SUM(F16:F20)</f>
+      <c r="F23" s="20">
+        <f>SUM(F18:F22)</f>
         <v>168930.79</v>
       </c>
-      <c r="G21" s="20">
-        <f>SUM(G16:G20)</f>
+      <c r="G23" s="20">
+        <f>SUM(G18:G22)</f>
         <v>506792.33999999997</v>
       </c>
-      <c r="H21" s="19">
-        <f>+D21+G21</f>
+      <c r="H23" s="19">
+        <f>+D23+G23</f>
         <v>6364123.5899999999</v>
       </c>
-      <c r="I21" s="20">
-        <f>SUM(I16:I18)</f>
+      <c r="I23" s="20">
+        <f>SUM(I18:I20)</f>
         <v>5450919.1400000006</v>
       </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="H24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1157,7 +1210,6 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1167,56 +1219,75 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
